--- a/presentation/knn.xlsx
+++ b/presentation/knn.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIXON15\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\tripass.knn\presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="01" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>Student Name</t>
   </si>
@@ -69,6 +70,15 @@
   </si>
   <si>
     <t>Sleep</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Joe</t>
   </si>
 </sst>
 </file>
@@ -162,12 +172,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -183,6 +189,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,36 +489,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O26"/>
+  <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -503,11 +545,23 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -517,11 +571,21 @@
       <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -531,11 +595,21 @@
       <c r="D5">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -545,11 +619,11 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -559,11 +633,11 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -573,11 +647,11 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -587,253 +661,265 @@
       <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
-        <f t="shared" ref="C13:C22" si="0">C14+1</f>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C23" si="0">C15+1</f>
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="3">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="10"/>
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="3">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="3">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="3">
+      <c r="D17" s="3"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="3">
+      <c r="D18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="10"/>
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="3">
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="3">
+      <c r="D20" s="5"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="10"/>
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="3">
+      <c r="D21" s="5"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="3">
+      <c r="D22" s="5"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="10"/>
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="3">
-        <f>C24+1</f>
+      <c r="D23" s="5"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="10"/>
+      <c r="C24" s="1">
+        <f>C25+1</f>
         <v>2</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="12"/>
-      <c r="C24" s="3">
+      <c r="D24" s="5"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-    </row>
-    <row r="25" spans="2:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D25" s="3">
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="3">
-        <f>D25+1</f>
+      <c r="E26" s="1">
+        <f>D26+1</f>
         <v>2</v>
       </c>
-      <c r="F25" s="3">
-        <f t="shared" ref="F25:O25" si="1">E25+1</f>
+      <c r="F26" s="1">
+        <f t="shared" ref="F26:O26" si="1">E26+1</f>
         <v>3</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G26" s="1">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H26" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I26" s="1">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J26" s="1">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K26" s="1">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L26" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M26" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N26" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O26" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D26" s="11" t="s">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D27" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B13:B24"/>
-    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="B14:B25"/>
+    <mergeCell ref="D27:O27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>